--- a/SME_Data.xlsx
+++ b/SME_Data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
   <si>
     <t>SME_Data (1)</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Email</t>
   </si>
   <si>
+    <t>Password</t>
+  </si>
+  <si>
     <t>WhatsApp</t>
   </si>
   <si>
@@ -85,10 +88,39 @@
     <t>Dr.</t>
   </si>
   <si>
+    <t>Test Name</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="15"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>test@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Maths</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Pachal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namakkal </t>
+  </si>
+  <si>
     <t>Tr. Dr. Thiraviyam</t>
-  </si>
-  <si>
-    <t>P</t>
   </si>
   <si>
     <r>
@@ -102,21 +134,6 @@
     </r>
   </si>
   <si>
-    <t>Chemistry</t>
-  </si>
-  <si>
-    <t>Maths</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Pachal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namakkal </t>
-  </si>
-  <si>
     <t>Mr.</t>
   </si>
   <si>
@@ -399,7 +416,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -411,9 +428,20 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color indexed="15"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
@@ -423,7 +451,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,8 +470,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -455,6 +489,28 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -468,7 +524,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -477,7 +533,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,43 +542,28 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,28 +572,73 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,47 +648,62 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -622,10 +723,13 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -642,10 +746,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -822,11 +926,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -835,33 +942,33 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1100,12 +1207,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1386,7 +1493,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1657,7 +1764,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:U16"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1668,794 +1775,893 @@
     <col min="3" max="3" width="23.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="5.85156" style="1" customWidth="1"/>
     <col min="5" max="5" width="30.1719" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6719" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="9" width="8.85156" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.35156" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.17188" style="1" customWidth="1"/>
-    <col min="13" max="13" width="42.1719" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.3516" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8" style="1" customWidth="1"/>
-    <col min="16" max="17" width="10.6719" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.17188" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.1719" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.3516" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.35156" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.6719" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1" customWidth="1"/>
+    <col min="9" max="10" width="8.85156" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.35156" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.17188" style="1" customWidth="1"/>
+    <col min="14" max="14" width="42.1719" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.3516" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8" style="1" customWidth="1"/>
+    <col min="17" max="18" width="10.6719" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.17188" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.1719" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.3516" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.35156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="5"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="G2" t="s" s="6">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="3">
+      <c r="H2" t="s" s="6">
         <v>8</v>
       </c>
-      <c r="I2" t="s" s="3">
+      <c r="I2" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="J2" t="s" s="3">
+      <c r="J2" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="K2" t="s" s="3">
+      <c r="K2" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="L2" t="s" s="3">
+      <c r="L2" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="M2" t="s" s="3">
+      <c r="M2" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="N2" t="s" s="3">
+      <c r="N2" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="O2" t="s" s="3">
+      <c r="O2" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="P2" t="s" s="3">
+      <c r="P2" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="Q2" t="s" s="3">
+      <c r="Q2" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="R2" t="s" s="3">
+      <c r="R2" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="S2" t="s" s="3">
+      <c r="S2" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="T2" t="s" s="3">
+      <c r="T2" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="U2" t="s" s="3">
+      <c r="U2" t="s" s="6">
         <v>21</v>
+      </c>
+      <c r="V2" t="s" s="6">
+        <v>22</v>
       </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s" s="5">
+      <c r="A3" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="B3" t="s" s="8">
         <v>24</v>
       </c>
-      <c r="D3" t="s" s="6">
+      <c r="C3" t="s" s="9">
         <v>25</v>
       </c>
-      <c r="E3" t="s" s="6">
+      <c r="D3" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="F3" s="7">
+      <c r="E3" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="F3" s="10">
+        <v>123</v>
+      </c>
+      <c r="G3" s="10">
+        <v>909208888</v>
+      </c>
+      <c r="H3" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s" s="9">
+        <v>29</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" t="s" s="9">
+        <v>31</v>
+      </c>
+      <c r="P3" s="10">
+        <v>637018</v>
+      </c>
+      <c r="Q3" t="s" s="9">
+        <v>32</v>
+      </c>
+      <c r="R3" t="s" s="9">
+        <v>32</v>
+      </c>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+    </row>
+    <row r="4" ht="20.25" customHeight="1">
+      <c r="A4" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s" s="13">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s" s="14">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s" s="14">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s" s="14">
+        <v>34</v>
+      </c>
+      <c r="F4" s="15">
+        <v>123</v>
+      </c>
+      <c r="G4" s="15">
         <v>8428176336</v>
       </c>
-      <c r="G3" t="s" s="6">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s" s="6">
+      <c r="H4" t="s" s="14">
         <v>28</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" t="s" s="6">
+      <c r="I4" t="s" s="14">
         <v>29</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" t="s" s="6">
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" t="s" s="14">
         <v>30</v>
       </c>
-      <c r="O3" s="7">
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="P4" s="15">
         <v>637018</v>
       </c>
-      <c r="P3" t="s" s="6">
-        <v>31</v>
-      </c>
-      <c r="Q3" t="s" s="6">
-        <v>31</v>
-      </c>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s" s="10">
+      <c r="Q4" t="s" s="14">
         <v>32</v>
       </c>
-      <c r="C4" t="s" s="11">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s" s="11">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s" s="11">
-        <v>35</v>
-      </c>
-      <c r="F4" s="12">
-        <v>9688343582</v>
-      </c>
-      <c r="G4" t="s" s="11">
-        <v>36</v>
-      </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" t="s" s="11">
-        <v>29</v>
-      </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" t="s" s="11">
-        <v>37</v>
-      </c>
-      <c r="O4" s="12">
-        <v>641015</v>
-      </c>
-      <c r="P4" t="s" s="11">
-        <v>37</v>
-      </c>
-      <c r="Q4" t="s" s="11">
-        <v>38</v>
-      </c>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
+      <c r="R4" t="s" s="14">
+        <v>32</v>
+      </c>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s" s="10">
+      <c r="A5" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s" s="14">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s" s="14">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s" s="14">
+        <v>38</v>
+      </c>
+      <c r="F5" s="17">
+        <v>123</v>
+      </c>
+      <c r="G5" s="15">
+        <v>9688343582</v>
+      </c>
+      <c r="H5" t="s" s="14">
         <v>39</v>
       </c>
-      <c r="C5" t="s" s="11">
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" t="s" s="14">
+        <v>30</v>
+      </c>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" t="s" s="14">
         <v>40</v>
       </c>
-      <c r="D5" t="s" s="11">
+      <c r="P5" s="15">
+        <v>641015</v>
+      </c>
+      <c r="Q5" t="s" s="14">
+        <v>40</v>
+      </c>
+      <c r="R5" t="s" s="14">
         <v>41</v>
       </c>
-      <c r="E5" t="s" s="11">
-        <v>42</v>
-      </c>
-      <c r="F5" s="12">
-        <v>7708894403</v>
-      </c>
-      <c r="G5" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" t="s" s="11">
-        <v>44</v>
-      </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" t="s" s="11">
-        <v>45</v>
-      </c>
-      <c r="O5" s="12">
-        <v>641659</v>
-      </c>
-      <c r="P5" t="s" s="11">
-        <v>46</v>
-      </c>
-      <c r="Q5" t="s" s="11">
-        <v>38</v>
-      </c>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s" s="11">
+      <c r="A6" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s" s="13">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s" s="14">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s" s="14">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s" s="14">
+        <v>45</v>
+      </c>
+      <c r="F6" s="18">
+        <v>123</v>
+      </c>
+      <c r="G6" s="15">
+        <v>7708894403</v>
+      </c>
+      <c r="H6" t="s" s="14">
+        <v>46</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" t="s" s="14">
         <v>47</v>
       </c>
-      <c r="D6" t="s" s="11">
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" t="s" s="14">
         <v>48</v>
       </c>
-      <c r="E6" t="s" s="11">
+      <c r="P6" s="15">
+        <v>641659</v>
+      </c>
+      <c r="Q6" t="s" s="14">
         <v>49</v>
       </c>
-      <c r="F6" s="12">
-        <v>9486392471</v>
-      </c>
-      <c r="G6" t="s" s="11">
-        <v>28</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" t="s" s="11">
-        <v>44</v>
-      </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" t="s" s="11">
-        <v>50</v>
-      </c>
-      <c r="O6" s="12">
-        <v>641663</v>
-      </c>
-      <c r="P6" t="s" s="11">
-        <v>51</v>
-      </c>
-      <c r="Q6" t="s" s="11">
-        <v>52</v>
-      </c>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
+      <c r="R6" t="s" s="14">
+        <v>41</v>
+      </c>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s" s="11">
+      <c r="A7" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s" s="13">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s" s="14">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s" s="14">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s" s="14">
+        <v>52</v>
+      </c>
+      <c r="F7" s="18">
+        <v>123</v>
+      </c>
+      <c r="G7" s="15">
+        <v>9486392471</v>
+      </c>
+      <c r="H7" t="s" s="14">
+        <v>29</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" t="s" s="14">
+        <v>47</v>
+      </c>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" t="s" s="14">
         <v>53</v>
       </c>
-      <c r="D7" t="s" s="11">
+      <c r="P7" s="15">
+        <v>641663</v>
+      </c>
+      <c r="Q7" t="s" s="14">
         <v>54</v>
       </c>
-      <c r="E7" t="s" s="11">
+      <c r="R7" t="s" s="14">
         <v>55</v>
       </c>
-      <c r="F7" s="12">
-        <v>9442411355</v>
-      </c>
-      <c r="G7" t="s" s="11">
-        <v>56</v>
-      </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" t="s" s="11">
-        <v>44</v>
-      </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" t="s" s="11">
-        <v>46</v>
-      </c>
-      <c r="O7" s="12">
-        <v>641402</v>
-      </c>
-      <c r="P7" t="s" s="11">
-        <v>46</v>
-      </c>
-      <c r="Q7" t="s" s="11">
-        <v>38</v>
-      </c>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s" s="11">
+      <c r="A8" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s" s="13">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s" s="14">
         <v>57</v>
       </c>
-      <c r="D8" t="s" s="11">
+      <c r="E8" t="s" s="14">
+        <v>58</v>
+      </c>
+      <c r="F8" s="18">
+        <v>123</v>
+      </c>
+      <c r="G8" s="15">
+        <v>9442411355</v>
+      </c>
+      <c r="H8" t="s" s="14">
+        <v>59</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" t="s" s="14">
+        <v>47</v>
+      </c>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" t="s" s="14">
+        <v>49</v>
+      </c>
+      <c r="P8" s="15">
+        <v>641402</v>
+      </c>
+      <c r="Q8" t="s" s="14">
+        <v>49</v>
+      </c>
+      <c r="R8" t="s" s="14">
         <v>41</v>
       </c>
-      <c r="E8" t="s" s="11">
-        <v>58</v>
-      </c>
-      <c r="F8" s="12">
-        <v>9750511063</v>
-      </c>
-      <c r="G8" t="s" s="11">
-        <v>59</v>
-      </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" t="s" s="11">
-        <v>44</v>
-      </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" t="s" s="11">
-        <v>60</v>
-      </c>
-      <c r="O8" s="12">
-        <v>641668</v>
-      </c>
-      <c r="P8" t="s" s="11">
-        <v>46</v>
-      </c>
-      <c r="Q8" t="s" s="11">
-        <v>52</v>
-      </c>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s" s="10">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s" s="11">
+      <c r="A9" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s" s="13">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s" s="14">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s" s="14">
         <v>61</v>
       </c>
-      <c r="D9" t="s" s="11">
+      <c r="F9" s="18">
+        <v>123</v>
+      </c>
+      <c r="G9" s="15">
+        <v>9750511063</v>
+      </c>
+      <c r="H9" t="s" s="14">
         <v>62</v>
       </c>
-      <c r="E9" t="s" s="11">
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" t="s" s="14">
+        <v>47</v>
+      </c>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" t="s" s="14">
         <v>63</v>
       </c>
-      <c r="F9" s="12">
-        <v>9894933750</v>
-      </c>
-      <c r="G9" t="s" s="11">
-        <v>56</v>
-      </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" t="s" s="11">
-        <v>29</v>
-      </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" t="s" s="11">
-        <v>64</v>
-      </c>
-      <c r="O9" s="12">
+      <c r="P9" s="15">
         <v>641668</v>
       </c>
-      <c r="P9" t="s" s="11">
-        <v>46</v>
-      </c>
-      <c r="Q9" t="s" s="11">
-        <v>38</v>
-      </c>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
+      <c r="Q9" t="s" s="14">
+        <v>49</v>
+      </c>
+      <c r="R9" t="s" s="14">
+        <v>55</v>
+      </c>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s" s="11">
+      <c r="A10" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s" s="14">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s" s="14">
         <v>65</v>
       </c>
-      <c r="D10" t="s" s="11">
+      <c r="E10" t="s" s="14">
         <v>66</v>
       </c>
-      <c r="E10" t="s" s="11">
+      <c r="F10" s="18">
+        <v>123</v>
+      </c>
+      <c r="G10" s="15">
+        <v>9894933750</v>
+      </c>
+      <c r="H10" t="s" s="14">
+        <v>59</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" t="s" s="14">
+        <v>30</v>
+      </c>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" t="s" s="14">
         <v>67</v>
       </c>
-      <c r="F10" s="12">
-        <v>9688816515</v>
-      </c>
-      <c r="G10" t="s" s="11">
-        <v>59</v>
-      </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" t="s" s="11">
-        <v>44</v>
-      </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" t="s" s="11">
-        <v>68</v>
-      </c>
-      <c r="O10" s="12">
-        <v>641664</v>
-      </c>
-      <c r="P10" t="s" s="11">
-        <v>51</v>
-      </c>
-      <c r="Q10" t="s" s="11">
-        <v>52</v>
-      </c>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
+      <c r="P10" s="15">
+        <v>641668</v>
+      </c>
+      <c r="Q10" t="s" s="14">
+        <v>49</v>
+      </c>
+      <c r="R10" t="s" s="14">
+        <v>41</v>
+      </c>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s" s="11">
+      <c r="A11" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s" s="13">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s" s="14">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s" s="14">
         <v>69</v>
       </c>
-      <c r="D11" t="s" s="11">
+      <c r="E11" t="s" s="14">
+        <v>70</v>
+      </c>
+      <c r="F11" s="18">
+        <v>123</v>
+      </c>
+      <c r="G11" s="15">
+        <v>9688816515</v>
+      </c>
+      <c r="H11" t="s" s="14">
         <v>62</v>
       </c>
-      <c r="E11" t="s" s="11">
-        <v>70</v>
-      </c>
-      <c r="F11" s="12">
-        <v>9787313531</v>
-      </c>
-      <c r="G11" t="s" s="11">
-        <v>59</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" t="s" s="11">
-        <v>44</v>
-      </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" t="s" s="11">
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" t="s" s="14">
+        <v>47</v>
+      </c>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" t="s" s="14">
         <v>71</v>
       </c>
-      <c r="O11" s="12">
-        <v>641401</v>
-      </c>
-      <c r="P11" t="s" s="11">
-        <v>46</v>
-      </c>
-      <c r="Q11" t="s" s="11">
-        <v>38</v>
-      </c>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
+      <c r="P11" s="15">
+        <v>641664</v>
+      </c>
+      <c r="Q11" t="s" s="14">
+        <v>54</v>
+      </c>
+      <c r="R11" t="s" s="14">
+        <v>55</v>
+      </c>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s" s="11">
+      <c r="A12" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s" s="13">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s" s="14">
         <v>72</v>
       </c>
-      <c r="D12" t="s" s="11">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s" s="11">
+      <c r="D12" t="s" s="14">
+        <v>65</v>
+      </c>
+      <c r="E12" t="s" s="14">
         <v>73</v>
       </c>
-      <c r="F12" s="12">
-        <v>9095886353</v>
-      </c>
-      <c r="G12" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" t="s" s="11">
-        <v>44</v>
-      </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" t="s" s="11">
-        <v>64</v>
-      </c>
-      <c r="O12" s="12">
-        <v>641668</v>
-      </c>
-      <c r="P12" t="s" s="11">
-        <v>46</v>
-      </c>
-      <c r="Q12" t="s" s="11">
-        <v>38</v>
-      </c>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
+      <c r="F12" s="18">
+        <v>123</v>
+      </c>
+      <c r="G12" s="15">
+        <v>9787313531</v>
+      </c>
+      <c r="H12" t="s" s="14">
+        <v>62</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" t="s" s="14">
+        <v>47</v>
+      </c>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" t="s" s="14">
+        <v>74</v>
+      </c>
+      <c r="P12" s="15">
+        <v>641401</v>
+      </c>
+      <c r="Q12" t="s" s="14">
+        <v>49</v>
+      </c>
+      <c r="R12" t="s" s="14">
+        <v>41</v>
+      </c>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s" s="10">
+      <c r="A13" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="C13" t="s" s="11">
-        <v>74</v>
-      </c>
-      <c r="D13" t="s" s="11">
+      <c r="B13" t="s" s="13">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s" s="14">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s" s="14">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s" s="14">
+        <v>76</v>
+      </c>
+      <c r="F13" s="18">
+        <v>123</v>
+      </c>
+      <c r="G13" s="15">
+        <v>9095886353</v>
+      </c>
+      <c r="H13" t="s" s="14">
+        <v>46</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" t="s" s="14">
+        <v>47</v>
+      </c>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" t="s" s="14">
+        <v>67</v>
+      </c>
+      <c r="P13" s="15">
+        <v>641668</v>
+      </c>
+      <c r="Q13" t="s" s="14">
+        <v>49</v>
+      </c>
+      <c r="R13" t="s" s="14">
         <v>41</v>
       </c>
-      <c r="E13" t="s" s="11">
-        <v>75</v>
-      </c>
-      <c r="F13" s="12">
-        <v>8300885800</v>
-      </c>
-      <c r="G13" t="s" s="11">
-        <v>28</v>
-      </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" t="s" s="11">
-        <v>29</v>
-      </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" t="s" s="11">
-        <v>76</v>
-      </c>
-      <c r="O13" s="12">
-        <v>641663</v>
-      </c>
-      <c r="P13" t="s" s="11">
-        <v>51</v>
-      </c>
-      <c r="Q13" t="s" s="11">
-        <v>52</v>
-      </c>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s" s="11">
+      <c r="A14" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s" s="13">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s" s="14">
         <v>77</v>
       </c>
-      <c r="D14" t="s" s="11">
+      <c r="D14" t="s" s="14">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s" s="14">
         <v>78</v>
       </c>
-      <c r="E14" t="s" s="11">
+      <c r="F14" s="18">
+        <v>123</v>
+      </c>
+      <c r="G14" s="15">
+        <v>8300885800</v>
+      </c>
+      <c r="H14" t="s" s="14">
+        <v>29</v>
+      </c>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" t="s" s="14">
+        <v>30</v>
+      </c>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" t="s" s="14">
         <v>79</v>
       </c>
-      <c r="F14" s="12">
-        <v>9894684784</v>
-      </c>
-      <c r="G14" t="s" s="11">
-        <v>80</v>
-      </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" t="s" s="11">
-        <v>44</v>
-      </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" t="s" s="11">
-        <v>81</v>
-      </c>
-      <c r="O14" s="12">
-        <v>641401</v>
-      </c>
-      <c r="P14" t="s" s="11">
-        <v>46</v>
-      </c>
-      <c r="Q14" t="s" s="11">
-        <v>38</v>
-      </c>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
+      <c r="P14" s="15">
+        <v>641663</v>
+      </c>
+      <c r="Q14" t="s" s="14">
+        <v>54</v>
+      </c>
+      <c r="R14" t="s" s="14">
+        <v>55</v>
+      </c>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s" s="11">
+      <c r="A15" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s" s="13">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s" s="14">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s" s="14">
+        <v>81</v>
+      </c>
+      <c r="E15" t="s" s="14">
         <v>82</v>
       </c>
-      <c r="D15" t="s" s="11">
+      <c r="F15" s="18">
+        <v>123</v>
+      </c>
+      <c r="G15" s="15">
+        <v>9894684784</v>
+      </c>
+      <c r="H15" t="s" s="14">
+        <v>83</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" t="s" s="14">
+        <v>47</v>
+      </c>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" t="s" s="14">
+        <v>84</v>
+      </c>
+      <c r="P15" s="15">
+        <v>641401</v>
+      </c>
+      <c r="Q15" t="s" s="14">
+        <v>49</v>
+      </c>
+      <c r="R15" t="s" s="14">
         <v>41</v>
       </c>
-      <c r="E15" t="s" s="11">
-        <v>83</v>
-      </c>
-      <c r="F15" s="12">
-        <v>9994448476</v>
-      </c>
-      <c r="G15" t="s" s="11">
-        <v>28</v>
-      </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" t="s" s="11">
-        <v>44</v>
-      </c>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" t="s" s="11">
-        <v>84</v>
-      </c>
-      <c r="O15" s="12">
-        <v>641663</v>
-      </c>
-      <c r="P15" t="s" s="11">
-        <v>51</v>
-      </c>
-      <c r="Q15" t="s" s="11">
-        <v>52</v>
-      </c>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="9">
+      <c r="A16" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s" s="13">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s" s="14">
         <v>85</v>
       </c>
-      <c r="B16" t="s" s="10">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s" s="11">
+      <c r="D16" t="s" s="14">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s" s="14">
         <v>86</v>
       </c>
-      <c r="D16" t="s" s="11">
-        <v>48</v>
-      </c>
-      <c r="E16" t="s" s="11">
+      <c r="F16" s="18">
+        <v>123</v>
+      </c>
+      <c r="G16" s="15">
+        <v>9994448476</v>
+      </c>
+      <c r="H16" t="s" s="14">
+        <v>29</v>
+      </c>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" t="s" s="14">
+        <v>47</v>
+      </c>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" t="s" s="14">
         <v>87</v>
       </c>
-      <c r="F16" s="12">
+      <c r="P16" s="15">
+        <v>641663</v>
+      </c>
+      <c r="Q16" t="s" s="14">
+        <v>54</v>
+      </c>
+      <c r="R16" t="s" s="14">
+        <v>55</v>
+      </c>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" t="s" s="12">
+        <v>88</v>
+      </c>
+      <c r="B17" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s" s="14">
+        <v>89</v>
+      </c>
+      <c r="D17" t="s" s="14">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s" s="14">
+        <v>90</v>
+      </c>
+      <c r="F17" s="10">
+        <v>123</v>
+      </c>
+      <c r="G17" s="15">
         <v>9080790697</v>
       </c>
-      <c r="G16" t="s" s="11">
-        <v>80</v>
-      </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" t="s" s="11">
-        <v>29</v>
-      </c>
-      <c r="L16" s="13"/>
-      <c r="M16" t="s" s="11">
-        <v>88</v>
-      </c>
-      <c r="N16" t="s" s="11">
-        <v>38</v>
-      </c>
-      <c r="O16" s="12">
+      <c r="H17" t="s" s="14">
+        <v>83</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" t="s" s="14">
+        <v>30</v>
+      </c>
+      <c r="M17" s="16"/>
+      <c r="N17" t="s" s="14">
+        <v>91</v>
+      </c>
+      <c r="O17" t="s" s="14">
+        <v>41</v>
+      </c>
+      <c r="P17" s="15">
         <v>641014</v>
       </c>
-      <c r="P16" t="s" s="11">
-        <v>38</v>
-      </c>
-      <c r="Q16" t="s" s="11">
-        <v>38</v>
-      </c>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
+      <c r="Q17" t="s" s="14">
+        <v>41</v>
+      </c>
+      <c r="R17" t="s" s="14">
+        <v>41</v>
+      </c>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A1:V1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" location="" tooltip="" display="Thiraviyam.p@gmail.com"/>
-    <hyperlink ref="E4" r:id="rId2" location="" tooltip="" display="Nilalexs@gmail.com"/>
-    <hyperlink ref="E5" r:id="rId3" location="" tooltip="" display="Vijayalakshmikalidasan@gmail.com"/>
-    <hyperlink ref="E6" r:id="rId4" location="" tooltip="" display="Lina92471@gmail.com"/>
-    <hyperlink ref="E7" r:id="rId5" location="" tooltip="" display="Sasianand1511@gmail.com"/>
-    <hyperlink ref="E8" r:id="rId6" location="" tooltip="" display="Ruckmaniperiyasamy1997@gmail.com"/>
-    <hyperlink ref="E9" r:id="rId7" location="" tooltip="" display="Maruthi2784@gmail.com"/>
-    <hyperlink ref="E10" r:id="rId8" location="" tooltip="" display="Unnamalai456@gmail.com"/>
-    <hyperlink ref="E11" r:id="rId9" location="" tooltip="" display="Poornisree14@gmail.com"/>
-    <hyperlink ref="E12" r:id="rId10" location="" tooltip="" display="Premaabi07@gmail.com"/>
-    <hyperlink ref="E13" r:id="rId11" location="" tooltip="" display="Venkatkcp@gmail.com"/>
-    <hyperlink ref="E14" r:id="rId12" location="" tooltip="" display="Kalpanasezhiyan15@gmail.com"/>
-    <hyperlink ref="E15" r:id="rId13" location="" tooltip="" display="Kirusarvan9394@gmail.com"/>
-    <hyperlink ref="E16" r:id="rId14" location="" tooltip="" display="rtnmdramamoorthy@gmail.com"/>
+    <hyperlink ref="E3" r:id="rId1" location="" tooltip="" display="test@gmail.com"/>
+    <hyperlink ref="E4" r:id="rId2" location="" tooltip="" display="Thiraviyam.p@gmail.com"/>
+    <hyperlink ref="E5" r:id="rId3" location="" tooltip="" display="Nilalexs@gmail.com"/>
+    <hyperlink ref="E6" r:id="rId4" location="" tooltip="" display="Vijayalakshmikalidasan@gmail.com"/>
+    <hyperlink ref="E7" r:id="rId5" location="" tooltip="" display="Lina92471@gmail.com"/>
+    <hyperlink ref="E8" r:id="rId6" location="" tooltip="" display="Sasianand1511@gmail.com"/>
+    <hyperlink ref="E9" r:id="rId7" location="" tooltip="" display="Ruckmaniperiyasamy1997@gmail.com"/>
+    <hyperlink ref="E10" r:id="rId8" location="" tooltip="" display="Maruthi2784@gmail.com"/>
+    <hyperlink ref="E11" r:id="rId9" location="" tooltip="" display="Unnamalai456@gmail.com"/>
+    <hyperlink ref="E12" r:id="rId10" location="" tooltip="" display="Poornisree14@gmail.com"/>
+    <hyperlink ref="E13" r:id="rId11" location="" tooltip="" display="Premaabi07@gmail.com"/>
+    <hyperlink ref="E14" r:id="rId12" location="" tooltip="" display="Venkatkcp@gmail.com"/>
+    <hyperlink ref="E15" r:id="rId13" location="" tooltip="" display="Kalpanasezhiyan15@gmail.com"/>
+    <hyperlink ref="E16" r:id="rId14" location="" tooltip="" display="Kirusarvan9394@gmail.com"/>
+    <hyperlink ref="E17" r:id="rId15" location="" tooltip="" display="rtnmdramamoorthy@gmail.com"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/SME_Data.xlsx
+++ b/SME_Data.xlsx
@@ -88,7 +88,7 @@
     <t>Dr.</t>
   </si>
   <si>
-    <t>Test Name</t>
+    <t>Tr. Ayyappan</t>
   </si>
   <si>
     <t>P</t>
